--- a/data/trans_orig/POLIPATOLOGIA_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>400706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371062</v>
+        <v>371004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>432921</v>
+        <v>431775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3883850285005051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3596525840331558</v>
+        <v>0.3595963120978081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4196097477119646</v>
+        <v>0.4184987981022696</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>710</v>
@@ -765,19 +765,19 @@
         <v>728884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>689270</v>
+        <v>697324</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>766201</v>
+        <v>766334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.55423640655608</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5241148550482586</v>
+        <v>0.5302391929380698</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5826125280476901</v>
+        <v>0.5827134604339137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1126</v>
@@ -786,19 +786,19 @@
         <v>1129589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1076907</v>
+        <v>1084213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1176616</v>
+        <v>1180215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4813243269397056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4588763635476427</v>
+        <v>0.4619894008425924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5013630226345714</v>
+        <v>0.5028962860329609</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>631017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>598802</v>
+        <v>599948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>660661</v>
+        <v>660719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6116149714994948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5803902522880355</v>
+        <v>0.5815012018977306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6403474159668443</v>
+        <v>0.640403687902192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>581</v>
@@ -836,19 +836,19 @@
         <v>586229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>548912</v>
+        <v>548779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>625843</v>
+        <v>617789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4457635934439201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4173874719523099</v>
+        <v>0.4172865395660862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4758851449517414</v>
+        <v>0.4697608070619302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1203</v>
@@ -857,19 +857,19 @@
         <v>1217246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1170219</v>
+        <v>1166620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1269928</v>
+        <v>1262622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5186756730602944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4986369773654286</v>
+        <v>0.4971037139670391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5411236364523573</v>
+        <v>0.5380105991574076</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>185406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163380</v>
+        <v>162279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210052</v>
+        <v>212136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1094866397999996</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0964798717920555</v>
+        <v>0.09582968047483903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.124040767556654</v>
+        <v>0.1252712544193527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>309</v>
@@ -982,19 +982,19 @@
         <v>315084</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283768</v>
+        <v>287129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>346813</v>
+        <v>348140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1984564935984686</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1787318088254524</v>
+        <v>0.1808490132082423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2184409399706436</v>
+        <v>0.2192769190167486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>496</v>
@@ -1003,19 +1003,19 @@
         <v>500490</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>457499</v>
+        <v>459161</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>541246</v>
+        <v>540895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1525379515168153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1394351167947069</v>
+        <v>0.1399417079500094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1649593581717506</v>
+        <v>0.1648524590811387</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1508007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1483361</v>
+        <v>1481277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1530033</v>
+        <v>1531134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8905133602000004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8759592324433461</v>
+        <v>0.8747287455806473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9035201282079444</v>
+        <v>0.9041703195251609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1245</v>
@@ -1053,19 +1053,19 @@
         <v>1272589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1240860</v>
+        <v>1239533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1303905</v>
+        <v>1300544</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8015435064015315</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7815590600293564</v>
+        <v>0.7807230809832514</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8212681911745475</v>
+        <v>0.8191509867917577</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2707</v>
@@ -1074,19 +1074,19 @@
         <v>2780596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2739840</v>
+        <v>2740191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2823587</v>
+        <v>2821925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8474620484831847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8350406418282496</v>
+        <v>0.8351475409188615</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8605648832052932</v>
+        <v>0.8600582920499907</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>61871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47826</v>
+        <v>47490</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79367</v>
+        <v>78425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1122055319504006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08673385978372911</v>
+        <v>0.08612511987028924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1439351824448444</v>
+        <v>0.1422275402349704</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1199,19 +1199,19 @@
         <v>88394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70392</v>
+        <v>71698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106182</v>
+        <v>107258</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1855405862772002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1477543147450348</v>
+        <v>0.1504964878412267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2228781760159328</v>
+        <v>0.2251375327346365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1220,19 +1220,19 @@
         <v>150265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127259</v>
+        <v>128875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173109</v>
+        <v>175470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1461975614828023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.123814170157149</v>
+        <v>0.1253865344784879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1684238796269837</v>
+        <v>0.1707204373192293</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>489537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472041</v>
+        <v>472983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>503582</v>
+        <v>503918</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8877944680495994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8560648175551556</v>
+        <v>0.8577724597650298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9132661402162709</v>
+        <v>0.9138748801297107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>370</v>
@@ -1270,19 +1270,19 @@
         <v>388018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>370230</v>
+        <v>369154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>406020</v>
+        <v>404714</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8144594137227998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7771218239840672</v>
+        <v>0.7748624672653635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8522456852549651</v>
+        <v>0.8495035121587733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -1291,19 +1291,19 @@
         <v>877555</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>854711</v>
+        <v>852350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>900561</v>
+        <v>898945</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8538024385171977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8315761203730164</v>
+        <v>0.8292795626807707</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8761858298428512</v>
+        <v>0.8746134655215123</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>647983</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1101</v>
@@ -1416,19 +1416,19 @@
         <v>1132361</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1763</v>
@@ -1437,19 +1437,19 @@
         <v>1780344</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2628560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2585072</v>
+        <v>2582836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2674674</v>
+        <v>2673779</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8022358598294719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7889631696918983</v>
+        <v>0.788280941881253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8163097557928803</v>
+        <v>0.8160367299758831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2196</v>
@@ -1487,19 +1487,19 @@
         <v>2246836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2193975</v>
+        <v>2193388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2301916</v>
+        <v>2301881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6649023683425367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6492593299875423</v>
+        <v>0.6490855648855722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6812019502532202</v>
+        <v>0.6811916762808572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4748</v>
@@ -1508,19 +1508,19 @@
         <v>4875397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4802507</v>
+        <v>4802297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4951800</v>
+        <v>4941245</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7325100410795651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7215585127142404</v>
+        <v>0.7215270007675807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7439892411471455</v>
+        <v>0.742403425746312</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>475878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>445426</v>
+        <v>441596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>511311</v>
+        <v>505610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.488258567754507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4570147854008531</v>
+        <v>0.4530845214343328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5246135283347529</v>
+        <v>0.5187643832585906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>797</v>
@@ -1872,19 +1872,19 @@
         <v>848951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>813512</v>
+        <v>811894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>885101</v>
+        <v>887387</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6345887369943469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6080979153211049</v>
+        <v>0.6068888638901494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6616106363666037</v>
+        <v>0.6633193988987099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1231</v>
@@ -1893,19 +1893,19 @@
         <v>1324829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1278402</v>
+        <v>1278754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1373980</v>
+        <v>1373139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5729137512629494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5528367096421002</v>
+        <v>0.5529890095898788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5941690432969279</v>
+        <v>0.5938053625999914</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>498765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463332</v>
+        <v>469033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>529217</v>
+        <v>533047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.511741432245493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4753864716652471</v>
+        <v>0.4812356167414094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5429852145991468</v>
+        <v>0.5469154785656671</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>450</v>
@@ -1943,19 +1943,19 @@
         <v>488846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>452696</v>
+        <v>450410</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524285</v>
+        <v>525903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3654112630056531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3383893636333964</v>
+        <v>0.3366806011012901</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3919020846788951</v>
+        <v>0.3931111361098505</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>924</v>
@@ -1964,19 +1964,19 @@
         <v>987611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>938460</v>
+        <v>939301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1034038</v>
+        <v>1033686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4270862487370506</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4058309567030722</v>
+        <v>0.4061946374000086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4471632903578999</v>
+        <v>0.4470109904101212</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>302544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>269878</v>
+        <v>270154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>335889</v>
+        <v>335760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.154048412552854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1374155874115811</v>
+        <v>0.1375557196774263</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710265905424608</v>
+        <v>0.1709607618582848</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>397</v>
@@ -2089,19 +2089,19 @@
         <v>433807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>394550</v>
+        <v>395325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>473989</v>
+        <v>471082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2467891470987051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2244562250281106</v>
+        <v>0.224897300423403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2696486086108119</v>
+        <v>0.2679949331072735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>678</v>
@@ -2110,19 +2110,19 @@
         <v>736351</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>686715</v>
+        <v>688419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>789915</v>
+        <v>788752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1978502447346918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1845135258901299</v>
+        <v>0.1849714389941751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.212242251131022</v>
+        <v>0.2119297861412228</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1661413</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1628068</v>
+        <v>1628197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1694079</v>
+        <v>1693803</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.845951587447146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8289734094575396</v>
+        <v>0.8290392381417152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8625844125884191</v>
+        <v>0.8624442803225737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1238</v>
@@ -2160,19 +2160,19 @@
         <v>1323996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1283814</v>
+        <v>1286721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1363253</v>
+        <v>1362478</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.753210852901295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7303513913891878</v>
+        <v>0.7320050668927265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7755437749718893</v>
+        <v>0.7751026995765971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2813</v>
@@ -2181,19 +2181,19 @@
         <v>2985409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2931845</v>
+        <v>2933008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3035045</v>
+        <v>3033341</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8021497552653082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.787757748868978</v>
+        <v>0.7880702138587773</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8154864741098701</v>
+        <v>0.8150285610058249</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>53704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40719</v>
+        <v>39141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70354</v>
+        <v>69962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1116095795024252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08462297288886401</v>
+        <v>0.08134259797671585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1462110983687641</v>
+        <v>0.1453973433774673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -2306,19 +2306,19 @@
         <v>91655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74140</v>
+        <v>74987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110740</v>
+        <v>109284</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1998444392222983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1616543534654268</v>
+        <v>0.1635008083582318</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2414579715730576</v>
+        <v>0.2382836669538676</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>128</v>
@@ -2327,19 +2327,19 @@
         <v>145359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124140</v>
+        <v>124631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171386</v>
+        <v>174564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.154668432828003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1320900537647995</v>
+        <v>0.1326125060161731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1823621128912476</v>
+        <v>0.1857431787299227</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>427477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410827</v>
+        <v>411219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>440462</v>
+        <v>442040</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8883904204975749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8537889016312359</v>
+        <v>0.8546026566225328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.915377027111136</v>
+        <v>0.9186574020232842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -2377,19 +2377,19 @@
         <v>366976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>347891</v>
+        <v>349347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>384491</v>
+        <v>383644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8001555607777017</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7585420284269424</v>
+        <v>0.7617163330461323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8383456465345732</v>
+        <v>0.8364991916417682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>722</v>
@@ -2398,19 +2398,19 @@
         <v>794454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>768427</v>
+        <v>765249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>815673</v>
+        <v>815182</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.845331567171997</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8176378871087525</v>
+        <v>0.8142568212700774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8679099462352006</v>
+        <v>0.867387493983827</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>832127</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>775895</v>
+        <v>781472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>882651</v>
+        <v>883722</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2433274444956097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2268843297966983</v>
+        <v>0.22851507236995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2581016181536104</v>
+        <v>0.2584146668153517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1277</v>
@@ -2523,19 +2523,19 @@
         <v>1374412</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1315539</v>
+        <v>1317557</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1437061</v>
+        <v>1433773</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3866975404791046</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3701332331762084</v>
+        <v>0.3707011328678524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4043242392623925</v>
+        <v>0.4033989239709308</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2037</v>
@@ -2544,19 +2544,19 @@
         <v>2206539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2126491</v>
+        <v>2130869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2289459</v>
+        <v>2285942</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3163944721310502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3049165009296003</v>
+        <v>0.3055442783847763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3282844196808042</v>
+        <v>0.3277800996909007</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2587655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2537131</v>
+        <v>2536060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2643887</v>
+        <v>2638310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7566725555043903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7418983818463895</v>
+        <v>0.7415853331846483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7731156702033016</v>
+        <v>0.7714849276300498</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2017</v>
@@ -2594,19 +2594,19 @@
         <v>2179818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2117169</v>
+        <v>2120457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2238691</v>
+        <v>2236673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6133024595208953</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5956757607376075</v>
+        <v>0.5966010760290691</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6298667668237916</v>
+        <v>0.6292988671321476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4459</v>
@@ -2615,19 +2615,19 @@
         <v>4767473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4684553</v>
+        <v>4688070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4847521</v>
+        <v>4843143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6836055278689499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6717155803191956</v>
+        <v>0.6722199003090994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6950834990703992</v>
+        <v>0.694455721615224</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>334693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305724</v>
+        <v>309392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>360540</v>
+        <v>363183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4436856590362548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4052834511503385</v>
+        <v>0.4101449624473753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4779497217250202</v>
+        <v>0.4814540875392263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>552</v>
@@ -2979,19 +2979,19 @@
         <v>632282</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>597091</v>
+        <v>600786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>663426</v>
+        <v>665134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6356765512395877</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6002964950951859</v>
+        <v>0.604011824770505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6669876677964812</v>
+        <v>0.6687045815717638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>905</v>
@@ -3000,19 +3000,19 @@
         <v>966975</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>926171</v>
+        <v>925347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1007411</v>
+        <v>1008000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5528708706479365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5295408199957479</v>
+        <v>0.5290701219110541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5759901931102049</v>
+        <v>0.5763270766037101</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>419654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393807</v>
+        <v>391164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448623</v>
+        <v>444955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5563143409637451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5220502782749795</v>
+        <v>0.5185459124607738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5947165488496614</v>
+        <v>0.5898550375526247</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -3050,19 +3050,19 @@
         <v>362378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331234</v>
+        <v>329526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>397569</v>
+        <v>393874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3643234487604123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3330123322035187</v>
+        <v>0.3312954184282361</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3997035049048141</v>
+        <v>0.395988175229495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>749</v>
@@ -3071,19 +3071,19 @@
         <v>782032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741596</v>
+        <v>741007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>822836</v>
+        <v>823660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4471291293520635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4240098068897953</v>
+        <v>0.4236729233962899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4704591800042522</v>
+        <v>0.4709298780889461</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>374409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>342442</v>
+        <v>340475</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>410999</v>
+        <v>409618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.180317580172885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1649223989776572</v>
+        <v>0.1639750205970755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1979394787623132</v>
+        <v>0.1972747523932751</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>485</v>
@@ -3196,19 +3196,19 @@
         <v>534722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>493752</v>
+        <v>496513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>574152</v>
+        <v>574223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2689342971398844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2483289161392404</v>
+        <v>0.2497173779639412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.288765108471095</v>
+        <v>0.2888011977883275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>841</v>
@@ -3217,19 +3217,19 @@
         <v>909131</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>858776</v>
+        <v>855060</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>961115</v>
+        <v>962370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2236657419061716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2112773180237371</v>
+        <v>0.2103632798832007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.236454951590039</v>
+        <v>0.2367636207320989</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1701976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1665386</v>
+        <v>1666767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1733943</v>
+        <v>1735910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.819682419827115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8020605212376869</v>
+        <v>0.8027252476067249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8350776010223429</v>
+        <v>0.8360249794029244</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1423</v>
@@ -3267,19 +3267,19 @@
         <v>1453578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1414148</v>
+        <v>1414077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1494548</v>
+        <v>1491787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7310657028601156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.711234891528905</v>
+        <v>0.7111988022116725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7516710838607596</v>
+        <v>0.7502826220360588</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3019</v>
@@ -3288,19 +3288,19 @@
         <v>3155554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3103570</v>
+        <v>3102315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3205909</v>
+        <v>3209625</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7763342580938284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7635450484099608</v>
+        <v>0.7632363792679008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7887226819762629</v>
+        <v>0.7896367201167993</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>98554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81424</v>
+        <v>81287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118330</v>
+        <v>118869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1802092971019189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1488861099564272</v>
+        <v>0.1486366849870035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2163708329849865</v>
+        <v>0.2173551941178394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -3413,19 +3413,19 @@
         <v>109342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90119</v>
+        <v>89556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129735</v>
+        <v>129947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1991152600450661</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1641095619816685</v>
+        <v>0.1630840205690357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.236250876435681</v>
+        <v>0.2366370878558859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -3434,19 +3434,19 @@
         <v>207896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182205</v>
+        <v>182381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>235484</v>
+        <v>235314</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1896817200492387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1662416522672406</v>
+        <v>0.1664021905812088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2148524831941439</v>
+        <v>0.2146972266640562</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>448332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428556</v>
+        <v>428017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465462</v>
+        <v>465599</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8197907028980811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7836291670150135</v>
+        <v>0.7826448058821607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.851113890043573</v>
+        <v>0.8513633150129964</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>429</v>
@@ -3484,19 +3484,19 @@
         <v>439798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>419405</v>
+        <v>419193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>459021</v>
+        <v>459584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8008847399549339</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7637491235643189</v>
+        <v>0.7633629121441141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8358904380183315</v>
+        <v>0.8369159794309643</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -3505,19 +3505,19 @@
         <v>888131</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>860543</v>
+        <v>860713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>913822</v>
+        <v>913646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8103182799507613</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7851475168058561</v>
+        <v>0.7853027733359438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8337583477327594</v>
+        <v>0.8335978094187911</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>807656</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>758574</v>
+        <v>760239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>861129</v>
+        <v>856325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2391198635137189</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2245884211624234</v>
+        <v>0.2250813347261823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2549515395821288</v>
+        <v>0.2535292432095166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1134</v>
@@ -3630,19 +3630,19 @@
         <v>1276346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1214380</v>
+        <v>1217842</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1329222</v>
+        <v>1337769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3613562031248809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.343812366790873</v>
+        <v>0.3447926283677982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3763261672117382</v>
+        <v>0.3787461439749424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1929</v>
@@ -3651,19 +3651,19 @@
         <v>2084002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2008196</v>
+        <v>2008265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2162750</v>
+        <v>2165418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3016044705328317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2906335114410898</v>
+        <v>0.2906434916377375</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3130012300612195</v>
+        <v>0.3133872948364535</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2569962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2516489</v>
+        <v>2521293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2619044</v>
+        <v>2617379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7608801364862812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7450484604178712</v>
+        <v>0.7464707567904835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7754115788375766</v>
+        <v>0.7749186652738177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2192</v>
@@ -3701,19 +3701,19 @@
         <v>2255754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2202878</v>
+        <v>2194331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2317720</v>
+        <v>2314258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6386437968751191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6236738327882618</v>
+        <v>0.6212538560250576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6561876332091271</v>
+        <v>0.6552073716322017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4612</v>
@@ -3722,19 +3722,19 @@
         <v>4825716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4746968</v>
+        <v>4744300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4901522</v>
+        <v>4901453</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6983955294671683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6869987699387804</v>
+        <v>0.6866127051635466</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.70936648855891</v>
+        <v>0.7093565083622626</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>305653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282548</v>
+        <v>283804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327890</v>
+        <v>327289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5283275524027116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4883898285503628</v>
+        <v>0.490561266581773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5667650835770661</v>
+        <v>0.5657267391839697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1073</v>
@@ -4086,19 +4086,19 @@
         <v>590605</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>568907</v>
+        <v>569285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>611714</v>
+        <v>611918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7184645049376838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6920693928985482</v>
+        <v>0.6925288335924907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7441430121112355</v>
+        <v>0.7443908671439777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1487</v>
@@ -4107,19 +4107,19 @@
         <v>896258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>862962</v>
+        <v>861331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928349</v>
+        <v>929198</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6399250292505841</v>
+        <v>0.639925029250584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6161516943986292</v>
+        <v>0.6149877081957226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6628381842704475</v>
+        <v>0.6634443783938359</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>272876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>250639</v>
+        <v>251240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295981</v>
+        <v>294725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4716724475972885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4332349164229339</v>
+        <v>0.4342732608160302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5116101714496373</v>
+        <v>0.509438733418227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>354</v>
@@ -4157,19 +4157,19 @@
         <v>231433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210324</v>
+        <v>210120</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253131</v>
+        <v>252753</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2815354950623162</v>
+        <v>0.2815354950623161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2558569878887645</v>
+        <v>0.2556091328560223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3079306071014519</v>
+        <v>0.3074711664075091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>631</v>
@@ -4178,19 +4178,19 @@
         <v>504309</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>472218</v>
+        <v>471369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>537605</v>
+        <v>539236</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.360074970749416</v>
+        <v>0.3600749707494159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3371618157295526</v>
+        <v>0.3365556216061641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3838483056013708</v>
+        <v>0.3850122918042774</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>633466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>589523</v>
+        <v>588344</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>685716</v>
+        <v>683160</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2839932410291523</v>
+        <v>0.2839932410291522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2642928543719242</v>
+        <v>0.2637644144447297</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3074180074681448</v>
+        <v>0.3062719877970255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1293</v>
@@ -4303,19 +4303,19 @@
         <v>854181</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>813711</v>
+        <v>809840</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>894468</v>
+        <v>894146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3933793074927611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3747415432581963</v>
+        <v>0.3729589149277022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4119327759004729</v>
+        <v>0.4117848522364289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1977</v>
@@ -4324,19 +4324,19 @@
         <v>1487647</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1424426</v>
+        <v>1427308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1547997</v>
+        <v>1554169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3379510520407051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3235890761573723</v>
+        <v>0.3242438956862759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3516608837174011</v>
+        <v>0.3530630598108221</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1597100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1544850</v>
+        <v>1547406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1641043</v>
+        <v>1642222</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7160067589708478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6925819925318552</v>
+        <v>0.6937280122029744</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7357071456280757</v>
+        <v>0.7362355855552702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1628</v>
@@ -4374,19 +4374,19 @@
         <v>1317211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1276924</v>
+        <v>1277246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1357681</v>
+        <v>1361552</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6066206925072388</v>
+        <v>0.6066206925072387</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5880672240995269</v>
+        <v>0.588215147763571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6252584567418035</v>
+        <v>0.6270410850722975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2936</v>
@@ -4395,19 +4395,19 @@
         <v>2914312</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2853962</v>
+        <v>2847790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2977533</v>
+        <v>2974651</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6620489479592948</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6483391162825989</v>
+        <v>0.6469369401891776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6764109238426278</v>
+        <v>0.6757561043137239</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>196570</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171897</v>
+        <v>173727</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220044</v>
+        <v>221985</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2762416589592913</v>
+        <v>0.2762416589592912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2415682651760976</v>
+        <v>0.2441396872784792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3092300144479069</v>
+        <v>0.3119577974620028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>401</v>
@@ -4520,19 +4520,19 @@
         <v>274848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>250824</v>
+        <v>252619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298201</v>
+        <v>297275</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3740049162455904</v>
+        <v>0.3740049162455905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3413135929663441</v>
+        <v>0.3437574529394964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4057836596746063</v>
+        <v>0.4045239722755222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>621</v>
@@ -4541,19 +4541,19 @@
         <v>471418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>441140</v>
+        <v>435965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>506792</v>
+        <v>507296</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3259103553042558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3049781232972394</v>
+        <v>0.3014007320874903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3503658500569709</v>
+        <v>0.350714824114368</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>515017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>491543</v>
+        <v>489602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539690</v>
+        <v>537860</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7237583410407088</v>
+        <v>0.7237583410407087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6907699855520931</v>
+        <v>0.6880422025379964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7584317348239025</v>
+        <v>0.7558603127215205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>603</v>
@@ -4591,19 +4591,19 @@
         <v>460029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>436676</v>
+        <v>437602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>484053</v>
+        <v>482258</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6259950837544094</v>
+        <v>0.6259950837544095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5942163403253935</v>
+        <v>0.5954760277244777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6586864070336554</v>
+        <v>0.6562425470605034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1064</v>
@@ -4612,19 +4612,19 @@
         <v>975046</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939672</v>
+        <v>939168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1005324</v>
+        <v>1010499</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6740896446957443</v>
+        <v>0.6740896446957442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6496341499430291</v>
+        <v>0.6492851758856326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6950218767027605</v>
+        <v>0.6985992679125099</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1135689</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1074568</v>
+        <v>1074191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1192119</v>
+        <v>1196231</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3225762855793704</v>
+        <v>0.3225762855793705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3052157458724034</v>
+        <v>0.305108651100355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3386044719154199</v>
+        <v>0.33977251077229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2767</v>
@@ -4737,19 +4737,19 @@
         <v>1719633</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1659258</v>
+        <v>1668374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1769371</v>
+        <v>1771248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4612370573099726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4450432570581745</v>
+        <v>0.4474884524748758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4745776391249973</v>
+        <v>0.4750809987050204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4085</v>
@@ -4758,19 +4758,19 @@
         <v>2855322</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2766881</v>
+        <v>2773224</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2930846</v>
+        <v>2932502</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3938924218981943</v>
+        <v>0.3938924218981945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3816919394716015</v>
+        <v>0.3825669769178758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4043109483026541</v>
+        <v>0.4045393545352626</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2384994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2328564</v>
+        <v>2324452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2446115</v>
+        <v>2446492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6774237144206295</v>
+        <v>0.6774237144206297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.66139552808458</v>
+        <v>0.6602274892277099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6947842541275967</v>
+        <v>0.6948913488996447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2585</v>
@@ -4808,19 +4808,19 @@
         <v>2008674</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1958936</v>
+        <v>1957059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2069049</v>
+        <v>2059933</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5387629426900273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5254223608750027</v>
+        <v>0.5249190012949794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5549567429418255</v>
+        <v>0.552511547525124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4631</v>
@@ -4829,19 +4829,19 @@
         <v>4393668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4318144</v>
+        <v>4316488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4482109</v>
+        <v>4475766</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6061075781018055</v>
+        <v>0.6061075781018057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5956890516973458</v>
+        <v>0.595460645464737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6183080605283983</v>
+        <v>0.6174330230821241</v>
       </c>
     </row>
     <row r="15">
